--- a/335Lab/Lab 2/Data/AverageVelocitiesWithStdDev.xlsx
+++ b/335Lab/Lab 2/Data/AverageVelocitiesWithStdDev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335 Lab\Lab 2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD04733-AB80-481B-B4A7-63A5B204ADCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F5633-6442-404F-9160-FA5F09D08F93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8F385075-BD0B-654F-A0F3-8047B2A0C05C}"/>
+    <workbookView xWindow="3456" yWindow="1824" windowWidth="18900" windowHeight="11436" xr2:uid="{8F385075-BD0B-654F-A0F3-8047B2A0C05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -327,24 +330,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +665,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,46 +737,46 @@
       <c r="C2" s="11">
         <v>0.10175703640366275</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>9.9579000000000004</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.16252559788654825</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>7.2622900000000001</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>0.12460705145524777</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="14">
         <v>7.7402300000000004</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="14">
         <v>0.10597425562104622</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>5.4980500000000001</v>
       </c>
       <c r="K2" s="10">
         <v>4.4981100316416389E-2</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <v>5.5517200000000004</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>9.5879338331281705E-2</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="16">
         <v>3.8959800000000002</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="16">
         <v>0.12757222293055789</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="15">
         <v>3.5211700000000001</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="15">
         <v>8.6459137694028729E-2</v>
       </c>
     </row>
@@ -787,10 +790,10 @@
       <c r="C3" s="11">
         <v>0.11791719223133569</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="17">
         <v>11.8642</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="17">
         <v>0.12837744585503755</v>
       </c>
       <c r="F3" s="18">
@@ -799,10 +802,10 @@
       <c r="G3" s="18">
         <v>9.156028991396517E-2</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="19">
         <v>10.716200000000001</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>7.5827700468765982E-2</v>
       </c>
       <c r="J3" s="18">
@@ -811,22 +814,22 @@
       <c r="K3" s="11">
         <v>0.14734660020608717</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="20">
         <v>6.9829800000000004</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="20">
         <v>6.13707688612911E-2</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="21">
         <v>4.6583899999999998</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="21">
         <v>7.3039190889910663E-2</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="20">
         <v>4.4594300000000002</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="20">
         <v>7.6569195763272979E-2</v>
       </c>
     </row>
@@ -840,10 +843,10 @@
       <c r="C4" s="11">
         <v>6.2558091634565077E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="17">
         <v>13.4964</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="17">
         <v>0.16356244532611883</v>
       </c>
       <c r="F4" s="18">
@@ -852,10 +855,10 @@
       <c r="G4" s="18">
         <v>5.8863522774612972E-2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <v>11.3866</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <v>0.10369303568129844</v>
       </c>
       <c r="J4" s="18">
@@ -864,22 +867,22 @@
       <c r="K4" s="11">
         <v>7.1382504317368936E-2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="20">
         <v>7.9386400000000004</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="20">
         <v>8.0769935772159449E-2</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <v>5.2721910000000003</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="21">
         <v>5.5494695998156277E-2</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="20">
         <v>5.1642099999999997</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="20">
         <v>2.9629863380895519E-2</v>
       </c>
     </row>
@@ -893,10 +896,10 @@
       <c r="C5" s="11">
         <v>8.1787394581288503E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="17">
         <v>14.410500000000001</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="17">
         <v>9.1603002534627706E-2</v>
       </c>
       <c r="F5" s="18">
@@ -905,10 +908,10 @@
       <c r="G5" s="18">
         <v>8.0937414670545882E-2</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="19">
         <v>11.4634</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <v>6.2024558485073038E-2</v>
       </c>
       <c r="J5" s="18">
@@ -917,22 +920,22 @@
       <c r="K5" s="11">
         <v>7.8462034758003313E-2</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="20">
         <v>8.3910499999999999</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="20">
         <v>0.11518230506455585</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="21">
         <v>5.7173800000000004</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="21">
         <v>5.4637963592531043E-2</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="20">
         <v>5.6326599999999996</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="20">
         <v>2.4342946165842615E-2</v>
       </c>
     </row>
@@ -946,10 +949,10 @@
       <c r="C6" s="11">
         <v>0.12139754322558874</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>14.450900000000001</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="17">
         <v>7.2732667598229883E-2</v>
       </c>
       <c r="F6" s="18">
@@ -958,10 +961,10 @@
       <c r="G6" s="18">
         <v>0.11870826782902454</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <v>11.1469</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>0.1100832715070838</v>
       </c>
       <c r="J6" s="18">
@@ -970,22 +973,22 @@
       <c r="K6" s="11">
         <v>3.7546002220677589E-2</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="20">
         <v>8.5873699999999999</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="20">
         <v>4.4909804994665785E-2</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="21">
         <v>5.6718000000000002</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="21">
         <v>2.4405493939774623E-2</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="20">
         <v>5.6879900000000001</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="20">
         <v>4.1809123420689306E-2</v>
       </c>
     </row>
@@ -999,10 +1002,10 @@
       <c r="C7" s="11">
         <v>4.9559857112360023E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="17">
         <v>14.1783</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>9.2048428221620723E-2</v>
       </c>
       <c r="F7" s="18">
@@ -1011,10 +1014,10 @@
       <c r="G7" s="18">
         <v>3.7769028781000552E-2</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="19">
         <v>11.2971</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>4.7660829807975889E-2</v>
       </c>
       <c r="J7" s="18">
@@ -1023,22 +1026,22 @@
       <c r="K7" s="11">
         <v>2.3056068442911581E-2</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="20">
         <v>8.4280709999999992</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="20">
         <v>9.1502539544467951E-2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="21">
         <v>5.6463299999999998</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="21">
         <v>2.8002932798452965E-2</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="20">
         <v>5.5425899999999997</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="20">
         <v>5.7463010260126839E-2</v>
       </c>
     </row>
@@ -1052,10 +1055,10 @@
       <c r="C8" s="11">
         <v>0.16164915416625086</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="17">
         <v>14.2308</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="17">
         <v>4.4786940599778627E-2</v>
       </c>
       <c r="F8" s="18">
@@ -1064,10 +1067,10 @@
       <c r="G8" s="18">
         <v>8.3362769278866544E-2</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>10.695499999999999</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="19">
         <v>8.7021586817407889E-2</v>
       </c>
       <c r="J8" s="18">
@@ -1076,22 +1079,22 @@
       <c r="K8" s="11">
         <v>3.985380081844065E-2</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="20">
         <v>8.4300660000000001</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <v>1.9750520583353949E-2</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="21">
         <v>5.4496000000000002</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="21">
         <v>3.5866453109743346E-2</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="20">
         <v>5.5757399999999997</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="20">
         <v>3.2391019932794723E-2</v>
       </c>
     </row>
@@ -1105,10 +1108,10 @@
       <c r="C9" s="11">
         <v>9.6414277416937921E-2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="17">
         <v>14.7097</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="17">
         <v>0.16979213469235116</v>
       </c>
       <c r="F9" s="18">
@@ -1117,10 +1120,10 @@
       <c r="G9" s="18">
         <v>9.1149797129146587E-2</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="19">
         <v>9.9958899999999993</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="19">
         <v>7.9456331565075408E-2</v>
       </c>
       <c r="J9" s="18">
@@ -1129,22 +1132,22 @@
       <c r="K9" s="11">
         <v>4.4090990617936913E-2</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="20">
         <v>7.9641999999999999</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="20">
         <v>9.4083968914934951E-2</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="21">
         <v>5.1971299999999996</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="21">
         <v>5.2138998518235426E-2</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="20">
         <v>5.30213</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="20">
         <v>5.3778462194345497E-2</v>
       </c>
     </row>
@@ -1158,10 +1161,10 @@
       <c r="C10" s="11">
         <v>9.9393987470691433E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="17">
         <v>12.6617</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="17">
         <v>9.2132611951898105E-2</v>
       </c>
       <c r="F10" s="18">
@@ -1170,10 +1173,10 @@
       <c r="G10" s="18">
         <v>4.7158475037445392E-2</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="19">
         <v>10.0749</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="19">
         <v>4.4000014404643267E-2</v>
       </c>
       <c r="J10" s="18">
@@ -1182,22 +1185,22 @@
       <c r="K10" s="11">
         <v>5.9933102094722863E-2</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="20">
         <v>7.3258999999999999</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="20">
         <v>9.0101297267253938E-2</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="21">
         <v>4.9429499999999997</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="21">
         <v>2.583685432017347E-2</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="20">
         <v>4.7884700000000002</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="20">
         <v>8.2477250076505651E-2</v>
       </c>
     </row>
@@ -1211,10 +1214,10 @@
       <c r="C11" s="11">
         <v>9.6400878290526848E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="17">
         <v>11.5113</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="17">
         <v>0.11245756989465466</v>
       </c>
       <c r="F11" s="18">
@@ -1223,10 +1226,10 @@
       <c r="G11" s="18">
         <v>5.850899560572969E-2</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19">
         <v>9.0748999999999995</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <v>5.8320489024058744E-2</v>
       </c>
       <c r="J11" s="18">
@@ -1235,22 +1238,22 @@
       <c r="K11" s="11">
         <v>0.10005981554653405</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="20">
         <v>6.6096500000000002</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="20">
         <v>5.601850360965123E-2</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="21">
         <v>4.4989499999999998</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="21">
         <v>7.2770541921617055E-2</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="20">
         <v>4.3094799999999998</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="20">
         <v>5.6508867736648198E-2</v>
       </c>
     </row>
@@ -1258,40 +1261,40 @@
       <c r="A12" s="9">
         <v>2.87</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="22">
         <v>9.2630800000000004</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>0.11623774487221872</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="23">
         <v>9.7662800000000001</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="23">
         <v>0.11721049553965458</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="24">
         <v>7.4408000000000003</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="24">
         <v>9.4783250355105986E-2</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>7.4586199999999998</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>0.11621928220456827</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="24">
         <v>5.6287200000000004</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="22">
         <v>6.9555293954317698E-2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="26">
         <v>5.4375999999999998</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="26">
         <v>3.6574185215035117E-2</v>
       </c>
       <c r="N12" s="27">
@@ -1300,10 +1303,10 @@
       <c r="O12" s="27">
         <v>2.3290750176399741E-2</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="26">
         <v>3.3584000000000001</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="26">
         <v>0.14639196552459083</v>
       </c>
     </row>
@@ -1345,6 +1348,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C35235A0CBEA4E4BA44A492B72CB0F55" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e5c958f602f45486ea9c9e3e1161eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6112e395-b193-4778-b513-460523810ab5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df585931453734ed62ad13ba882f2bc2" ns2:_="">
     <xsd:import namespace="6112e395-b193-4778-b513-460523810ab5"/>
@@ -1476,12 +1485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69A6E76E-B456-4173-B04E-AAD867A954CF}">
   <ds:schemaRefs>
@@ -1491,6 +1494,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{752821D1-C181-4644-ABF0-CDCC8C499165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{530C1D90-556C-4950-90F5-1F2F84D012E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1506,13 +1518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{752821D1-C181-4644-ABF0-CDCC8C499165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>